--- a/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.55.xlsx
+++ b/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.55.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ShrForms\specifications\afs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3701D989-D70F-4463-A4A9-97800EB42E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DAB082-BB43-4055-AE99-DAECB958F433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4243" uniqueCount="2307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4245" uniqueCount="2309">
   <si>
     <t>Revision History</t>
   </si>
@@ -7216,6 +7216,12 @@
   <si>
     <t>numeric(9,0,negative)</t>
   </si>
+  <si>
+    <t>Total key management personnel emoluments is not greater than Chief Executive emoluments.  Please provide a comment.</t>
+  </si>
+  <si>
+    <t>Deferred income is not split between amounts due within 1 year and amounts due outwith 1 year. Please enter a comment at Total deferred income: amounts falling due after more than one year.</t>
+  </si>
 </sst>
 </file>
 
@@ -7226,7 +7232,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7579,6 +7585,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7989,7 +8001,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8788,6 +8800,7 @@
     <xf numFmtId="0" fontId="18" fillId="18" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11103,7 +11116,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:XFB23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11466,7 +11481,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -14094,12 +14109,12 @@
   </sheetPr>
   <dimension ref="A1:AH640"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B520" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="I162" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A523" sqref="A523"/>
+      <selection pane="bottomRight" activeCell="O168" sqref="O168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -22332,8 +22347,13 @@
         <v>841</v>
       </c>
       <c r="M167" s="47"/>
-      <c r="N167" s="39"/>
-      <c r="O167" s="47"/>
+      <c r="N167" s="295" t="b">
+        <f>OR((I135 + I144=0),AND(I135&lt;0,I144&lt;=0),(H167&lt;&gt;""))</f>
+        <v>1</v>
+      </c>
+      <c r="O167" s="47" t="s">
+        <v>2308</v>
+      </c>
       <c r="P167" s="36"/>
       <c r="Q167" s="152"/>
       <c r="R167" s="36"/>
@@ -37833,9 +37853,13 @@
         <v>841</v>
       </c>
       <c r="M481" s="47"/>
-      <c r="N481" s="39"/>
-      <c r="O481" s="47"/>
-      <c r="P481" s="36"/>
+      <c r="N481" s="47" t="b">
+        <f>OR(H459&lt;H460,H481&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="O481" s="36" t="s">
+        <v>2307</v>
+      </c>
       <c r="Q481" s="152"/>
       <c r="R481" s="36"/>
       <c r="S481" s="152"/>

--- a/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.55.xlsx
+++ b/specifications/afs/Business intelligence systems - System Development - BI Project - Finance Systems - AFS Data Specification V4.55.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ShrForms\specifications\afs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DAB082-BB43-4055-AE99-DAECB958F433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41A28DC-4932-438B-865A-F75756D203DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8779,6 +8779,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8800,7 +8801,6 @@
     <xf numFmtId="0" fontId="18" fillId="18" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9731,10 +9731,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="289" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="288"/>
+      <c r="B1" s="289"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -11792,8 +11792,8 @@
       <c r="G25" s="106"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="292"/>
-      <c r="B26" s="292"/>
+      <c r="A26" s="293"/>
+      <c r="B26" s="293"/>
       <c r="C26" s="95"/>
       <c r="D26" s="95"/>
       <c r="E26" s="95"/>
@@ -11903,8 +11903,8 @@
       <c r="G36" s="106"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="293"/>
-      <c r="B37" s="293"/>
+      <c r="A37" s="294"/>
+      <c r="B37" s="294"/>
       <c r="C37" s="103"/>
       <c r="D37" s="95"/>
       <c r="E37" s="103"/>
@@ -12534,19 +12534,19 @@
       <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="295" t="s">
         <v>1216</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294" t="s">
+      <c r="C2" s="295"/>
+      <c r="D2" s="295" t="s">
         <v>1219</v>
       </c>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
     </row>
     <row r="3" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="92" t="s">
@@ -12630,20 +12630,20 @@
       <c r="B6" s="93" t="s">
         <v>1227</v>
       </c>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="295" t="s">
         <v>1229</v>
       </c>
-      <c r="D6" s="294"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294" t="s">
+      <c r="D6" s="295"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="295" t="s">
         <v>1233</v>
       </c>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294" t="s">
+      <c r="G6" s="295"/>
+      <c r="H6" s="295"/>
+      <c r="I6" s="295" t="s">
         <v>1237</v>
       </c>
-      <c r="J6" s="294"/>
+      <c r="J6" s="295"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="94" t="s">
@@ -14110,11 +14110,11 @@
   <dimension ref="A1:AH640"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="I162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="M469" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O168" sqref="O168"/>
+      <selection pane="bottomRight" activeCell="N476" sqref="N476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -14522,12 +14522,12 @@
     <row r="9" spans="1:34" s="22" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="135"/>
       <c r="B9" s="135"/>
-      <c r="C9" s="289" t="s">
+      <c r="C9" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
       <c r="G9" s="135"/>
       <c r="H9" s="135"/>
       <c r="I9" s="135"/>
@@ -16296,12 +16296,12 @@
     <row r="45" spans="1:34" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="135"/>
       <c r="B45" s="135"/>
-      <c r="C45" s="289" t="s">
+      <c r="C45" s="290" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="289"/>
-      <c r="E45" s="289"/>
-      <c r="F45" s="289"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
       <c r="G45" s="135"/>
       <c r="H45" s="135"/>
       <c r="I45" s="135"/>
@@ -19697,12 +19697,12 @@
     <row r="114" spans="1:34" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="135"/>
       <c r="B114" s="135"/>
-      <c r="C114" s="289" t="s">
+      <c r="C114" s="290" t="s">
         <v>132</v>
       </c>
-      <c r="D114" s="289"/>
-      <c r="E114" s="289"/>
-      <c r="F114" s="289"/>
+      <c r="D114" s="290"/>
+      <c r="E114" s="290"/>
+      <c r="F114" s="290"/>
       <c r="G114" s="135"/>
       <c r="H114" s="135"/>
       <c r="I114" s="135"/>
@@ -22347,7 +22347,7 @@
         <v>841</v>
       </c>
       <c r="M167" s="47"/>
-      <c r="N167" s="295" t="b">
+      <c r="N167" s="288" t="b">
         <f>OR((I135 + I144=0),AND(I135&lt;0,I144&lt;=0),(H167&lt;&gt;""))</f>
         <v>1</v>
       </c>
@@ -22791,12 +22791,12 @@
     <row r="177" spans="1:34" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="135"/>
       <c r="B177" s="135"/>
-      <c r="C177" s="289" t="s">
+      <c r="C177" s="290" t="s">
         <v>226</v>
       </c>
-      <c r="D177" s="289"/>
-      <c r="E177" s="289"/>
-      <c r="F177" s="289"/>
+      <c r="D177" s="290"/>
+      <c r="E177" s="290"/>
+      <c r="F177" s="290"/>
       <c r="G177" s="135"/>
       <c r="H177" s="135"/>
       <c r="I177" s="135"/>
@@ -24884,11 +24884,11 @@
     <row r="220" spans="1:34" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="136"/>
       <c r="B220" s="136"/>
-      <c r="C220" s="289" t="s">
+      <c r="C220" s="290" t="s">
         <v>272</v>
       </c>
-      <c r="D220" s="289"/>
-      <c r="E220" s="289"/>
+      <c r="D220" s="290"/>
+      <c r="E220" s="290"/>
       <c r="F220" s="136"/>
       <c r="G220" s="136"/>
       <c r="H220" s="270"/>
@@ -41319,12 +41319,12 @@
     <row r="553" spans="1:34" s="22" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="135"/>
       <c r="B553" s="135"/>
-      <c r="C553" s="289" t="s">
+      <c r="C553" s="290" t="s">
         <v>1132</v>
       </c>
-      <c r="D553" s="289"/>
-      <c r="E553" s="289"/>
-      <c r="F553" s="289"/>
+      <c r="D553" s="290"/>
+      <c r="E553" s="290"/>
+      <c r="F553" s="290"/>
       <c r="G553" s="135"/>
       <c r="H553" s="135"/>
       <c r="I553" s="135"/>
@@ -42582,12 +42582,12 @@
     <row r="579" spans="1:34" s="22" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="135"/>
       <c r="B579" s="135"/>
-      <c r="C579" s="289" t="s">
+      <c r="C579" s="290" t="s">
         <v>1257</v>
       </c>
-      <c r="D579" s="289"/>
-      <c r="E579" s="289"/>
-      <c r="F579" s="289"/>
+      <c r="D579" s="290"/>
+      <c r="E579" s="290"/>
+      <c r="F579" s="290"/>
       <c r="G579" s="135"/>
       <c r="H579" s="135"/>
       <c r="I579" s="135"/>
@@ -46519,12 +46519,12 @@
         <f>Data!I101</f>
         <v>44298</v>
       </c>
-      <c r="E13" s="290" t="str">
+      <c r="E13" s="291" t="str">
         <f>Data!H108</f>
         <v>Balance at beginning of the year comment</v>
       </c>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="292"/>
       <c r="H13" s="60"/>
       <c r="J13" s="65"/>
       <c r="K13" s="51"/>
@@ -46546,12 +46546,12 @@
         <f>Data!I102</f>
         <v>0</v>
       </c>
-      <c r="E14" s="290" t="str">
+      <c r="E14" s="291" t="str">
         <f>Data!H109</f>
         <v>Issue of shares comment</v>
       </c>
-      <c r="F14" s="291"/>
-      <c r="G14" s="291"/>
+      <c r="F14" s="292"/>
+      <c r="G14" s="292"/>
       <c r="H14" s="60"/>
       <c r="J14" s="65"/>
       <c r="K14" s="51"/>
@@ -46573,12 +46573,12 @@
         <f>Data!I103</f>
         <v>0</v>
       </c>
-      <c r="E15" s="290" t="str">
+      <c r="E15" s="291" t="str">
         <f>Data!H110</f>
         <v>Cancellation of shares comment</v>
       </c>
-      <c r="F15" s="291"/>
-      <c r="G15" s="291"/>
+      <c r="F15" s="292"/>
+      <c r="G15" s="292"/>
       <c r="H15" s="60"/>
       <c r="J15" s="65"/>
       <c r="K15" s="51"/>
@@ -46600,12 +46600,12 @@
         <f>Data!I104</f>
         <v>120</v>
       </c>
-      <c r="E16" s="290" t="str">
+      <c r="E16" s="291" t="str">
         <f>Data!H111</f>
         <v>Surplus/(deficit) from statement of comprehensive income comment</v>
       </c>
-      <c r="F16" s="291"/>
-      <c r="G16" s="291"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
       <c r="H16" s="60"/>
       <c r="J16" s="65"/>
       <c r="K16" s="51"/>
@@ -46627,12 +46627,12 @@
         <f>Data!I105</f>
         <v>0</v>
       </c>
-      <c r="E17" s="290" t="str">
+      <c r="E17" s="291" t="str">
         <f>Data!H112</f>
         <v>Transfer from revaluation reserve to revenue reserve comment</v>
       </c>
-      <c r="F17" s="291"/>
-      <c r="G17" s="291"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
       <c r="H17" s="60"/>
       <c r="J17" s="65"/>
       <c r="K17" s="51"/>
@@ -46654,12 +46654,12 @@
         <f>Data!I106</f>
         <v>0</v>
       </c>
-      <c r="E18" s="290" t="str">
+      <c r="E18" s="291" t="str">
         <f>Data!H113</f>
         <v>Transfer of restricted expenditure from unrestricted reserve comment</v>
       </c>
-      <c r="F18" s="291"/>
-      <c r="G18" s="291"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
       <c r="H18" s="60"/>
       <c r="J18" s="65"/>
       <c r="K18" s="51"/>
